--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CE468-4F43-446A-A468-7E496E4A0E42}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53683858-59CE-4C58-8D87-38AA8AF5BEB0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -27,6 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
     <t>ACCOUNTS</t>
   </si>
   <si>
@@ -36,35 +45,19 @@
     <t>TO INCREASE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fees Earned</t>
+    <t>Retained Earnings</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Insurance Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accounts Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accounts Receivable</t>
+    <t>Insurance Expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,13 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,15 +106,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFEF1E6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -156,24 +141,6 @@
       <top/>
       <bottom style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,14 +159,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FFFABF8F"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -209,209 +178,437 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -562,9 +759,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFABF8F"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFD0F3FC"/>
-      <color rgb="FF8DB4E2"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
   </colors>
@@ -901,115 +1097,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="1.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="G6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F2:F4"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="I1:I8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="G2:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53683858-59CE-4C58-8D87-38AA8AF5BEB0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E852E9-0290-4A6A-897F-EEA071FF45CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -229,17 +229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="0"/>
@@ -248,17 +237,6 @@
       <bottom style="medium">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -310,43 +288,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -516,7 +463,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,23 +483,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,30 +510,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -601,15 +530,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1100,7 +1030,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1115,108 +1045,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="12"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="30"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E852E9-0290-4A6A-897F-EEA071FF45CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF34AAC-6F60-4D58-BA9D-F8D781D9DD6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,8 +147,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -156,11 +156,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFFABF8F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,154 +166,11 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFFABF8F"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFABF8F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFABF8F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFABF8F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -463,83 +318,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1027,131 +850,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="11"/>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A1:A8"/>
-    <mergeCell ref="I1:I8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
